--- a/mercury/src/test/resources/testdata/manifest-import/test-manifest-missing-patient.xlsx
+++ b/mercury/src/test/resources/testdata/manifest-import/test-manifest-missing-patient.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="80">
   <si>
     <t>Patient_ID</t>
   </si>
@@ -256,13 +256,19 @@
   </si>
   <si>
     <t>14-Oct-2009</t>
+  </si>
+  <si>
+    <t>Material Type</t>
+  </si>
+  <si>
+    <t>DNA:Genomic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -286,8 +292,15 @@
       <color theme="11"/>
       <name val="MS Sans Serif"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +317,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -323,7 +342,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,6 +357,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -741,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G1" sqref="G1:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -756,7 +778,7 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
@@ -775,8 +797,11 @@
       <c r="F1" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -793,8 +818,11 @@
       <c r="F2" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -813,8 +841,11 @@
       <c r="F3" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -833,8 +864,11 @@
       <c r="F4" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -853,8 +887,11 @@
       <c r="F5" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -873,8 +910,11 @@
       <c r="F6" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -893,8 +933,11 @@
       <c r="F7" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -913,8 +956,11 @@
       <c r="F8" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -933,8 +979,11 @@
       <c r="F9" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -953,8 +1002,11 @@
       <c r="F10" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -973,8 +1025,11 @@
       <c r="F11" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -993,8 +1048,11 @@
       <c r="F12" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1013,8 +1071,11 @@
       <c r="F13" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -1033,8 +1094,11 @@
       <c r="F14" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -1053,8 +1117,11 @@
       <c r="F15" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -1073,8 +1140,11 @@
       <c r="F16" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -1093,8 +1163,11 @@
       <c r="F17" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1113,8 +1186,11 @@
       <c r="F18" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
@@ -1133,8 +1209,11 @@
       <c r="F19" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -1153,8 +1232,11 @@
       <c r="F20" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -1173,8 +1255,11 @@
       <c r="F21" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>62</v>
       </c>
@@ -1193,8 +1278,11 @@
       <c r="F22" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -1213,8 +1301,11 @@
       <c r="F23" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>68</v>
       </c>
@@ -1232,6 +1323,9 @@
       </c>
       <c r="F24" s="5" t="s">
         <v>73</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
